--- a/biology/Médecine/Carboplatine/Carboplatine.xlsx
+++ b/biology/Médecine/Carboplatine/Carboplatine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le carboplatine est un sel de platine utilisé comme molécule anticancéreuse dans le traitement des cancers des ovaires, les cancers bronchiques à petites cellules et les cancers de la sphère ORL.  
@@ -513,9 +525,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis la découverte de l'action anticancéreuse du cisplatine en 1965 par l'équipe de Barnett Rosenberg de l'université du Michigan, des composés analogues ont été synthétisés, dont le carboplatine. Celui-ci obtiendra son autorisation de mise sur le marché américain en 1989 et sera commercialisé par la firme Bristol-Myers Squibb[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis la découverte de l'action anticancéreuse du cisplatine en 1965 par l'équipe de Barnett Rosenberg de l'université du Michigan, des composés analogues ont été synthétisés, dont le carboplatine. Celui-ci obtiendra son autorisation de mise sur le marché américain en 1989 et sera commercialisé par la firme Bristol-Myers Squibb.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Mécanisme d'action</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son action est proche de celle du cisplatine de la famille des agents alkylants de l'ADN.
 Le carboplatine se fixe sur la molécule d'ADN induisant des liaisons alkyles, créant des ponts inter-brins ou intra-brins. La réplication de l'ADN est inhibée aboutissant à la mort cellulaire préférentielle des cellules cancéreuses. 
@@ -576,7 +592,9 @@
           <t>Pharmacocinétique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La posologie de carboplatine peut être calculée avec la formule de Calvert ou la formule d'Egorin.
 La formule de Calvert prenant en compte l'AUC, le poids, l'âge du patient et sa clairance rénale. L'AUC désirée varie généralement de 4 à 8 mg/ml/min.
@@ -610,7 +628,9 @@
           <t>Indications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Carcinome de l'ovaire d'origine épithéliale
 Carcinome bronchique à petites cellules
@@ -642,12 +662,14 @@
           <t>Effets indésirables</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Troubles gastro intestinaux: Nausées et vomissements (80 % des patients), prévenus par des antiémétiques (Corticoides, sétrons...) diminuant généralement après 24 h, douleurs (8 %), constipation (6 %)
 Myelotoxicité :Thrombopénie (25 %), Anémie (15 %), Neutropénie(14 %), réversible
 Ototoxicité (15 %), bourdonnements d'oreille
-Néphrotoxicité (10 %), réversible[3]
+Néphrotoxicité (10 %), réversible
 Neurotoxicité (4 %) : Picotement et perte de sensibilité (difficulté pour fermer les boutons et impression de marcher sur de la ouate, voire sur des cailloux)
 Réactions allergiques (2 %) : éruption érythémateuse, fièvre sans cause apparente, prurit, rash, urticaire, plus rarement bronchospasme et hypotension.
 Troubles de la vision, troubles du goût (dysgueusie) (1 %)</t>
@@ -678,7 +700,9 @@
           <t>Contre-indications</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Insuffisance rénale sévère (clairance de la créatinine &lt; 20 ml/min).
 Antécédent d'allergie au carboplatine ou à d'autres produits contenant du platine.
@@ -712,7 +736,9 @@
           <t>Spécialités à base de carboplatine</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Belgique : Carboplatine Mayne ; Carboplatinum ; Carbosin ; Paraplatin
 France : CARBOPLATINE AGUETTANT ; CARBOPLATINE DAKOTA PHARM ; CARBOPLATINE FAULDING ; CARBOPLATINE G GAM; CARBOPLATINE MERCK; CARBOPLATINE TEVA® ; PARAPLATINE
@@ -744,9 +770,11 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le carboplatine fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[4].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le carboplatine fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
 </t>
         </is>
       </c>
